--- a/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation.xlsx
+++ b/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>CIN5</t>
   </si>
@@ -39,33 +39,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -78,21 +57,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -120,23 +90,45 @@
     <t>this is a test case in which the forward problem was solved to generate data.</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -178,38 +170,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,192 +573,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -770,159 +734,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -934,20 +865,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -956,7 +887,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -965,16 +896,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -982,17 +913,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1001,7 +929,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1010,7 +938,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1019,7 +947,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1027,16 +955,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1045,7 +970,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -1054,7 +979,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -1063,7 +988,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -1071,16 +996,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -1089,7 +1011,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -1098,7 +1020,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -1107,7 +1029,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -1115,16 +1037,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -1133,7 +1052,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -1142,7 +1061,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -1151,7 +1070,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -1159,40 +1078,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1201,285 +1117,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1489,9 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1516,14 +1415,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1534,7 +1433,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1551,7 +1450,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1612,9 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1638,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1673,7 +1570,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1690,7 +1587,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1740,7 +1637,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1751,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1762,26 +1659,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -1789,7 +1686,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -1797,82 +1694,82 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>100000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
+      <c r="A5" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1E-10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>100000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
+      <c r="A9" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
+      <c r="A10" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -1886,21 +1783,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -1908,10 +1805,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -1919,8 +1816,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
+      <c r="A17" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1999,19 +1896,19 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2019,7 +1916,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2048,7 +1945,7 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2065,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation.xlsx
+++ b/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>CIN5</t>
   </si>
@@ -99,9 +99,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1511,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1536,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1648,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1727,15 +1733,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1896,14 +1902,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation.xlsx
+++ b/test_files/estimation_tests/4-genes_6-edges_artificial-data_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>CIN5</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -117,7 +114,10 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -593,10 +593,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -755,10 +755,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1133,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -1422,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1542,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1663,27 +1663,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
@@ -1691,7 +1679,7 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
@@ -1699,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1695,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1703,7 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1711,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
@@ -1731,99 +1719,96 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1909,10 +1894,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +1956,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
